--- a/831MarketingAnalytics/Project/Data/Deferrals Data .xlsx
+++ b/831MarketingAnalytics/Project/Data/Deferrals Data .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kolsarc/Dropbox (Personal)/2. Teaching/3. AI &amp; Analytics/Assignments/Data Sets/Parachute/Data/Data to Share/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/831MarketingAnalytics/Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07428EA5-8292-CF46-804C-46D699A5DF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{07428EA5-8292-CF46-804C-46D699A5DF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D419FF-B6FD-0E41-8283-F6DED84CD848}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51840" windowHeight="21120" xr2:uid="{DA073F91-84B3-479F-B740-5F114BF79191}"/>
+    <workbookView xWindow="0" yWindow="3020" windowWidth="51840" windowHeight="17900" xr2:uid="{DA073F91-84B3-479F-B740-5F114BF79191}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/831MarketingAnalytics/Project/Data/Deferrals Data .xlsx
+++ b/831MarketingAnalytics/Project/Data/Deferrals Data .xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6" documentId="8_{07428EA5-8292-CF46-804C-46D699A5DF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D419FF-B6FD-0E41-8283-F6DED84CD848}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3020" windowWidth="51840" windowHeight="17900" xr2:uid="{DA073F91-84B3-479F-B740-5F114BF79191}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{DA073F91-84B3-479F-B740-5F114BF79191}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
